--- a/Tesis/Nicolas/Presentación 26-07/Test de agrupación.xlsx
+++ b/Tesis/Nicolas/Presentación 26-07/Test de agrupación.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="874" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="Analisis Estadistico " sheetId="8" r:id="rId1"/>
@@ -273,8 +273,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -944,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1027,27 +1028,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,6 +1272,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,22 +1645,22 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="82" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="17"/>
@@ -1663,22 +1673,22 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="60" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="17"/>
@@ -1691,10 +1701,10 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="65" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1703,10 +1713,10 @@
       <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="60" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="17"/>
@@ -1719,10 +1729,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="65" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1731,10 +1741,10 @@
       <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="60" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="17"/>
@@ -1747,10 +1757,10 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="65" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1759,10 +1769,10 @@
       <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H6" s="17"/>
@@ -1775,22 +1785,22 @@
     </row>
     <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="83" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="17"/>
@@ -1803,22 +1813,22 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="80" t="s">
         <v>74</v>
       </c>
       <c r="H8" s="17"/>
@@ -1863,22 +1873,22 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="82" t="s">
         <v>76</v>
       </c>
       <c r="H11" s="17"/>
@@ -1891,26 +1901,26 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="84">
         <f>273/655</f>
         <v>0.416793893129771</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="85">
         <f>127/655</f>
         <v>0.19389312977099238</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="85">
         <f>48/655</f>
         <v>7.3282442748091606E-2</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="86">
         <f>207/655</f>
         <v>0.31603053435114503</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="60">
         <v>655</v>
       </c>
       <c r="H12" s="17"/>
@@ -1923,26 +1933,26 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="87">
         <f>150/411</f>
         <v>0.36496350364963503</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="88">
         <f>67/411</f>
         <v>0.16301703163017031</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="88">
         <f>48/411</f>
         <v>0.11678832116788321</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="89">
         <f>146/411</f>
         <v>0.35523114355231145</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="60">
         <v>411</v>
       </c>
       <c r="H13" s="17"/>
@@ -1955,26 +1965,26 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="87">
         <f>66/155</f>
         <v>0.4258064516129032</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="88">
         <f>31/155</f>
         <v>0.2</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="88">
         <f>10/155</f>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="89">
         <f>48/155</f>
         <v>0.30967741935483872</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="60">
         <v>155</v>
       </c>
       <c r="H14" s="17"/>
@@ -1987,26 +1997,26 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="87">
         <f>101/278</f>
         <v>0.36330935251798563</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="88">
         <f>61/278</f>
         <v>0.21942446043165467</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="88">
         <f>25/278</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="89">
         <f>91/278</f>
         <v>0.3273381294964029</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="60">
         <v>278</v>
       </c>
       <c r="H15" s="17"/>
@@ -2019,26 +2029,26 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C16" s="90">
         <f>161/374</f>
         <v>0.43048128342245989</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="91">
         <f>64/374</f>
         <v>0.17112299465240641</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="91">
         <f>35/374</f>
         <v>9.3582887700534759E-2</v>
       </c>
-      <c r="F16" s="97">
+      <c r="F16" s="92">
         <f>114/374</f>
         <v>0.30481283422459893</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="83">
         <v>374</v>
       </c>
       <c r="H16" s="17"/>
@@ -2051,26 +2061,26 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="93">
         <f>751/1873</f>
         <v>0.40096102509343301</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="94">
         <f>350/1873</f>
         <v>0.18686599038974908</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="94">
         <f>166/1873</f>
         <v>8.8627869727709557E-2</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="95">
         <f>606/1873</f>
         <v>0.32354511478910836</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="80">
         <v>1873</v>
       </c>
       <c r="H17" s="17"/>
@@ -2165,113 +2175,113 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="82" t="s">
         <v>76</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="106" t="s">
+      <c r="J23" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="82" t="s">
+      <c r="K23" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="84" t="s">
+      <c r="M23" s="79" t="s">
         <v>34</v>
       </c>
       <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="84">
         <f>273/655</f>
         <v>0.416793893129771</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="85">
         <f>127/655</f>
         <v>0.19389312977099238</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="85">
         <f>48/655</f>
         <v>7.3282442748091606E-2</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="86">
         <f>207/655</f>
         <v>0.31603053435114503</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="60">
         <v>655</v>
       </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="107">
+      <c r="J24" s="102">
         <v>273</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="70">
         <v>127</v>
       </c>
-      <c r="L24" s="75">
+      <c r="L24" s="70">
         <v>48</v>
       </c>
-      <c r="M24" s="108">
+      <c r="M24" s="103">
         <v>207</v>
       </c>
       <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="92">
+      <c r="C25" s="87">
         <f>150/411</f>
         <v>0.36496350364963503</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D25" s="88">
         <f>67/411</f>
         <v>0.16301703163017031</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="88">
         <f>48/411</f>
         <v>0.11678832116788321</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="89">
         <f>146/411</f>
         <v>0.35523114355231145</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="60">
         <v>411</v>
       </c>
       <c r="H25" s="17"/>
-      <c r="I25" s="78" t="s">
+      <c r="I25" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="109">
+      <c r="J25" s="104">
         <v>150</v>
       </c>
       <c r="K25" s="2">
@@ -2280,40 +2290,40 @@
       <c r="L25" s="2">
         <v>48</v>
       </c>
-      <c r="M25" s="57">
+      <c r="M25" s="52">
         <v>146</v>
       </c>
       <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="87">
         <f>66/155</f>
         <v>0.4258064516129032</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="88">
         <f>31/155</f>
         <v>0.2</v>
       </c>
-      <c r="E26" s="93">
+      <c r="E26" s="88">
         <f>10/155</f>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="89">
         <f>48/155</f>
         <v>0.30967741935483872</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="60">
         <v>155</v>
       </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="79" t="s">
+      <c r="I26" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="109">
+      <c r="J26" s="104">
         <v>66</v>
       </c>
       <c r="K26" s="2">
@@ -2322,40 +2332,40 @@
       <c r="L26" s="2">
         <v>10</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="52">
         <v>48</v>
       </c>
       <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="87">
         <f>101/278</f>
         <v>0.36330935251798563</v>
       </c>
-      <c r="D27" s="93">
+      <c r="D27" s="88">
         <f>61/278</f>
         <v>0.21942446043165467</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E27" s="139">
         <f>25/278</f>
         <v>8.9928057553956831E-2</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="89">
         <f>91/278</f>
         <v>0.3273381294964029</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="60">
         <v>278</v>
       </c>
       <c r="H27" s="17"/>
-      <c r="I27" s="79" t="s">
+      <c r="I27" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="109">
+      <c r="J27" s="104">
         <v>101</v>
       </c>
       <c r="K27" s="2">
@@ -2364,91 +2374,91 @@
       <c r="L27" s="2">
         <v>25</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="52">
         <v>91</v>
       </c>
       <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="90">
         <f>161/374</f>
         <v>0.43048128342245989</v>
       </c>
-      <c r="D28" s="96">
+      <c r="D28" s="91">
         <f>64/374</f>
         <v>0.17112299465240641</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="141">
         <f>35/374</f>
         <v>9.3582887700534759E-2</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="92">
         <f>114/374</f>
         <v>0.30481283422459893</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="83">
         <v>374</v>
       </c>
       <c r="H28" s="17"/>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="105">
         <v>161</v>
       </c>
-      <c r="K28" s="72">
+      <c r="K28" s="67">
         <v>64</v>
       </c>
-      <c r="L28" s="72">
+      <c r="L28" s="67">
         <v>35</v>
       </c>
-      <c r="M28" s="111">
+      <c r="M28" s="106">
         <v>114</v>
       </c>
       <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="93">
         <f>751/1873</f>
         <v>0.40096102509343301</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="94">
         <f>350/1873</f>
         <v>0.18686599038974908</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="140">
         <f>166/1873</f>
         <v>8.8627869727709557E-2</v>
       </c>
-      <c r="F29" s="100">
+      <c r="F29" s="95">
         <f>606/1873</f>
         <v>0.32354511478910836</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="80">
         <v>1873</v>
       </c>
       <c r="H29" s="17"/>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="112">
+      <c r="J29" s="107">
         <v>751</v>
       </c>
-      <c r="K29" s="82">
+      <c r="K29" s="77">
         <v>350</v>
       </c>
-      <c r="L29" s="82">
+      <c r="L29" s="77">
         <v>166</v>
       </c>
-      <c r="M29" s="84">
+      <c r="M29" s="79">
         <v>606</v>
       </c>
       <c r="N29" s="17"/>
@@ -2487,284 +2497,284 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="82" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="113" t="s">
+      <c r="J32" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="L32" s="104" t="s">
+      <c r="L32" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="114" t="s">
+      <c r="M32" s="109" t="s">
         <v>34</v>
       </c>
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="74">
-        <f>ABS(C24-$C$29)/((C24*(1-C24)/J24)+($C$29*(1-$C$29)/$J$29))^(1/2)</f>
-        <v>0.45512165467865989</v>
-      </c>
-      <c r="D33" s="74">
-        <f>ABS(D24-$D$29)/((D24*(1-D24)/K24)+($D$29*(1-$D$29)/$K$29))^(1/2)</f>
-        <v>0.17222387335096437</v>
-      </c>
-      <c r="E33" s="74">
-        <f>ABS(E24-$E$29)/((E24*(1-E24)/L24)+($E$29*(1-$E$29)/$L$29))^(1/2)</f>
-        <v>0.35191674651134514</v>
-      </c>
-      <c r="F33" s="74">
-        <f>ABS(F24-$F$29)/((F24*(1-F24)/M24)+($F$29*(1-$F$29)/$M$29))^(1/2)</f>
-        <v>0.20045015922889012</v>
-      </c>
-      <c r="G33" s="65"/>
+      <c r="C33" s="69">
+        <f>ABS(C24-$C$29)/(($C$29*(1-$C$29)/$J$29))^(0.5)</f>
+        <v>0.88532135683445445</v>
+      </c>
+      <c r="D33" s="69">
+        <f>ABS(D24-$D$29)/(($D$29*(1-$D$29)/$K$29))^(0.5)</f>
+        <v>0.33726120970899831</v>
+      </c>
+      <c r="E33" s="69">
+        <f>ABS(E24-$E$29)/(($E$29*(1-$E$29)/$L$29))^(0.5)</f>
+        <v>0.69566474360160191</v>
+      </c>
+      <c r="F33" s="69">
+        <f>ABS(F24-$F$29)/(($F$29*(1-$F$29)/$M$29))^(0.5)</f>
+        <v>0.39541597181298827</v>
+      </c>
+      <c r="G33" s="60"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="101" t="s">
+      <c r="I33" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="118">
+      <c r="J33" s="113">
         <f>STANDARDIZE(C33,0,1)</f>
-        <v>0.45512165467865989</v>
-      </c>
-      <c r="K33" s="119">
+        <v>0.88532135683445445</v>
+      </c>
+      <c r="K33" s="114">
         <f t="shared" ref="K33:M37" si="0">STANDARDIZE(D33,0,1)</f>
-        <v>0.17222387335096437</v>
-      </c>
-      <c r="L33" s="119">
+        <v>0.33726120970899831</v>
+      </c>
+      <c r="L33" s="114">
         <f t="shared" si="0"/>
-        <v>0.35191674651134514</v>
-      </c>
-      <c r="M33" s="120">
+        <v>0.69566474360160191</v>
+      </c>
+      <c r="M33" s="115">
         <f t="shared" si="0"/>
-        <v>0.20045015922889012</v>
+        <v>0.39541597181298827</v>
       </c>
       <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="74">
-        <f>ABS(C25-$C$29)/((C25*(1-C25)/J25)+($C$29*(1-$C$29)/$J$29))^(1/2)</f>
-        <v>0.83356866734593038</v>
-      </c>
-      <c r="D34" s="74">
-        <f t="shared" ref="D34:D36" si="1">ABS(D25-$D$29)/((D25*(1-D25)/K25)+($D$29*(1-$D$29)/$K$29))^(1/2)</f>
-        <v>0.47980981811066648</v>
-      </c>
-      <c r="E34" s="74">
-        <f t="shared" ref="E34:E37" si="2">ABS(E25-$E$29)/((E25*(1-E25)/L25)+($E$29*(1-$E$29)/$L$29))^(1/2)</f>
-        <v>0.54853790732943564</v>
-      </c>
-      <c r="F34" s="74">
-        <f t="shared" ref="F34:F37" si="3">ABS(F25-$F$29)/((F25*(1-F25)/M25)+($F$29*(1-$F$29)/$M$29))^(1/2)</f>
-        <v>0.72126639846621621</v>
-      </c>
-      <c r="G34" s="65"/>
+      <c r="C34" s="69">
+        <f t="shared" ref="C34:C37" si="1">ABS(C25-$C$29)/(($C$29*(1-$C$29)/$J$29))^(0.5)</f>
+        <v>2.0128617540522189</v>
+      </c>
+      <c r="D34" s="69">
+        <f t="shared" ref="D34:D37" si="2">ABS(D25-$D$29)/(($D$29*(1-$D$29)/$K$29))^(0.5)</f>
+        <v>1.1446092421369407</v>
+      </c>
+      <c r="E34" s="69">
+        <f t="shared" ref="E33:F35" si="3">ABS(E25-$E$29)/(($E$29*(1-$E$29)/$L$29))^(0.5)</f>
+        <v>1.2766170180115439</v>
+      </c>
+      <c r="F34" s="69">
+        <f t="shared" ref="F34:F37" si="4">ABS(F25-$F$29)/(($F$29*(1-$F$29)/$M$29))^(0.5)</f>
+        <v>1.6673135592506911</v>
+      </c>
+      <c r="G34" s="60"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="102" t="s">
+      <c r="I34" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="109">
-        <f t="shared" ref="J34:J37" si="4">STANDARDIZE(C34,0,1)</f>
-        <v>0.83356866734593038</v>
-      </c>
-      <c r="K34" s="69">
+      <c r="J34" s="104">
+        <f t="shared" ref="J34:J37" si="5">STANDARDIZE(C34,0,1)</f>
+        <v>2.0128617540522189</v>
+      </c>
+      <c r="K34" s="64">
         <f t="shared" si="0"/>
-        <v>0.47980981811066648</v>
-      </c>
-      <c r="L34" s="69">
+        <v>1.1446092421369407</v>
+      </c>
+      <c r="L34" s="64">
         <f t="shared" si="0"/>
-        <v>0.54853790732943564</v>
-      </c>
-      <c r="M34" s="121">
+        <v>1.2766170180115439</v>
+      </c>
+      <c r="M34" s="116">
         <f t="shared" si="0"/>
-        <v>0.72126639846621621</v>
+        <v>1.6673135592506911</v>
       </c>
       <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="74">
-        <f t="shared" ref="C35:C37" si="5">ABS(C26-$C$29)/((C26*(1-C26)/J26)+($C$29*(1-$C$29)/$J$29))^(1/2)</f>
-        <v>0.39165269068648723</v>
-      </c>
-      <c r="D35" s="74">
+      <c r="C35" s="69">
         <f t="shared" si="1"/>
-        <v>0.17558232490484404</v>
-      </c>
-      <c r="E35" s="74">
-        <f>ABS(E26-$E$29)/((E26*(1-E26)/L26)+($E$29*(1-$E$29)/$L$29))^(0.5)</f>
-        <v>0.29856532422404114</v>
-      </c>
-      <c r="F35" s="74">
+        <v>1.3892736721397967</v>
+      </c>
+      <c r="D35" s="69">
+        <f t="shared" si="2"/>
+        <v>0.63035493237920071</v>
+      </c>
+      <c r="E35" s="69">
         <f t="shared" si="3"/>
-        <v>0.19985392295737234</v>
-      </c>
-      <c r="G35" s="65"/>
+        <v>1.0930740429033785</v>
+      </c>
+      <c r="F35" s="69">
+        <f t="shared" si="4"/>
+        <v>0.72971582541665647</v>
+      </c>
+      <c r="G35" s="60"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="103" t="s">
+      <c r="I35" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="109">
-        <f t="shared" si="4"/>
-        <v>0.39165269068648723</v>
-      </c>
-      <c r="K35" s="69">
+      <c r="J35" s="104">
+        <f t="shared" si="5"/>
+        <v>1.3892736721397967</v>
+      </c>
+      <c r="K35" s="64">
         <f t="shared" si="0"/>
-        <v>0.17558232490484404</v>
-      </c>
-      <c r="L35" s="69">
+        <v>0.63035493237920071</v>
+      </c>
+      <c r="L35" s="64">
         <f t="shared" si="0"/>
-        <v>0.29856532422404114</v>
-      </c>
-      <c r="M35" s="121">
+        <v>1.0930740429033785</v>
+      </c>
+      <c r="M35" s="116">
         <f t="shared" si="0"/>
-        <v>0.19985392295737234</v>
+        <v>0.72971582541665647</v>
       </c>
       <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="69">
+        <f t="shared" si="1"/>
+        <v>2.1053563874262879</v>
+      </c>
+      <c r="D36" s="69">
+        <f t="shared" si="2"/>
+        <v>1.5626143722033958</v>
+      </c>
+      <c r="E36" s="69">
+        <f>ABS(E27-$E$29)/(($E$29*(1-$E$29)/$L$29))^(0.5)</f>
+        <v>5.8942304569406787E-2</v>
+      </c>
+      <c r="F36" s="69">
+        <f t="shared" si="4"/>
+        <v>0.19958780253503058</v>
+      </c>
+      <c r="G36" s="60"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="104">
         <f t="shared" si="5"/>
-        <v>0.73698243420274512</v>
-      </c>
-      <c r="D36" s="74">
-        <f t="shared" si="1"/>
-        <v>0.57182106127120558</v>
-      </c>
-      <c r="E36" s="74">
-        <f>ABS(E27-$E$29)/((E27*(1-E27)/L27)+($E$29*(1-$E$29)/$L$29))^(0.5)</f>
-        <v>2.1203093233846431E-2</v>
-      </c>
-      <c r="F36" s="74">
-        <f>ABS(F27-$F$29)/((F27*(1-F27)/M27)+($F$29*(1-$F$29)/$M$29))^(1/2)</f>
-        <v>7.1928169729387384E-2</v>
-      </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="109">
-        <f t="shared" si="4"/>
-        <v>0.73698243420274512</v>
-      </c>
-      <c r="K36" s="69">
+        <v>2.1053563874262879</v>
+      </c>
+      <c r="K36" s="64">
         <f t="shared" si="0"/>
-        <v>0.57182106127120558</v>
-      </c>
-      <c r="L36" s="69">
+        <v>1.5626143722033958</v>
+      </c>
+      <c r="L36" s="64">
+        <f>STANDARDIZE(E36,0,1)</f>
+        <v>5.8942304569406787E-2</v>
+      </c>
+      <c r="M36" s="116">
         <f t="shared" si="0"/>
-        <v>2.1203093233846431E-2</v>
-      </c>
-      <c r="M36" s="121">
-        <f t="shared" si="0"/>
-        <v>7.1928169729387384E-2</v>
+        <v>0.19958780253503058</v>
       </c>
       <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="69">
+        <f t="shared" si="1"/>
+        <v>1.6506747291757555</v>
+      </c>
+      <c r="D37" s="69">
+        <f t="shared" si="2"/>
+        <v>0.7555708658621183</v>
+      </c>
+      <c r="E37" s="69">
+        <f>ABS(E28-$E$29)/(($E$29*(1-$E$29)/$L$29))^(0.5)</f>
+        <v>0.22462922095196025</v>
+      </c>
+      <c r="F37" s="69">
+        <f t="shared" si="4"/>
+        <v>0.98568948523978772</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="117">
         <f t="shared" si="5"/>
-        <v>0.68770775616049062</v>
-      </c>
-      <c r="D37" s="74">
-        <f>ABS(D28-$D$29)/((D28*(1-D28)/K28)+($D$29*(1-$D$29)/$K$29))^(1/2)</f>
-        <v>0.305796873422371</v>
-      </c>
-      <c r="E37" s="74">
-        <f t="shared" si="2"/>
-        <v>9.1851626439246603E-2</v>
-      </c>
-      <c r="F37" s="74">
-        <f t="shared" si="3"/>
-        <v>0.3975749556434946</v>
-      </c>
-      <c r="G37" s="88"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="122">
-        <f t="shared" si="4"/>
-        <v>0.68770775616049062</v>
-      </c>
-      <c r="K37" s="123">
+        <v>1.6506747291757555</v>
+      </c>
+      <c r="K37" s="118">
         <f t="shared" si="0"/>
-        <v>0.305796873422371</v>
-      </c>
-      <c r="L37" s="123">
+        <v>0.7555708658621183</v>
+      </c>
+      <c r="L37" s="118">
         <f t="shared" si="0"/>
-        <v>9.1851626439246603E-2</v>
-      </c>
-      <c r="M37" s="124">
+        <v>0.22462922095196025</v>
+      </c>
+      <c r="M37" s="119">
         <f t="shared" si="0"/>
-        <v>0.3975749556434946</v>
+        <v>0.98568948523978772</v>
       </c>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="85"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J38" s="115">
+      <c r="J38" s="110">
         <v>751</v>
       </c>
-      <c r="K38" s="116">
+      <c r="K38" s="111">
         <v>350</v>
       </c>
-      <c r="L38" s="116">
+      <c r="L38" s="111">
         <v>166</v>
       </c>
-      <c r="M38" s="117">
+      <c r="M38" s="112">
         <v>606</v>
       </c>
       <c r="N38" s="17"/>
@@ -2808,23 +2818,23 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="105">
+      <c r="G41" s="100">
         <v>0.05</v>
       </c>
       <c r="H41" s="17"/>
-      <c r="I41" s="85" t="s">
+      <c r="I41" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="113" t="s">
+      <c r="J41" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="K41" s="104" t="s">
+      <c r="K41" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="104" t="s">
+      <c r="L41" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M41" s="114" t="s">
+      <c r="M41" s="109" t="s">
         <v>34</v>
       </c>
       <c r="N41" s="17"/>
@@ -2838,22 +2848,22 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="137" t="s">
+      <c r="I42" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="J42" s="126" t="b">
+      <c r="J42" s="121" t="b">
         <f>J33&lt;0.05</f>
         <v>0</v>
       </c>
-      <c r="K42" s="127" t="b">
+      <c r="K42" s="122" t="b">
         <f t="shared" ref="K42:M42" si="6">K33&lt;0.05</f>
         <v>0</v>
       </c>
-      <c r="L42" s="127" t="b">
+      <c r="L42" s="122" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M42" s="128" t="b">
+      <c r="M42" s="123" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -2868,22 +2878,22 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="78" t="s">
+      <c r="I43" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="129" t="b">
+      <c r="J43" s="124" t="b">
         <f t="shared" ref="J43:M46" si="7">J34&lt;0.05</f>
         <v>0</v>
       </c>
-      <c r="K43" s="130" t="b">
+      <c r="K43" s="125" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L43" s="130" t="b">
+      <c r="L43" s="125" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M43" s="131" t="b">
+      <c r="M43" s="126" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2898,22 +2908,22 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="79" t="s">
+      <c r="I44" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="129" t="b">
+      <c r="J44" s="124" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K44" s="130" t="b">
+      <c r="K44" s="125" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L44" s="130" t="b">
+      <c r="L44" s="125" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M44" s="131" t="b">
+      <c r="M44" s="126" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2928,22 +2938,22 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="79" t="s">
+      <c r="I45" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="129" t="b">
+      <c r="J45" s="124" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K45" s="130" t="b">
+      <c r="K45" s="125" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L45" s="125" t="b">
+      <c r="L45" s="120" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M45" s="131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="126" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2958,22 +2968,22 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="138" t="s">
+      <c r="I46" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="132" t="b">
+      <c r="J46" s="127" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K46" s="133" t="b">
+      <c r="K46" s="128" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L46" s="133" t="b">
+      <c r="L46" s="128" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M46" s="134" t="b">
+      <c r="M46" s="129" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3002,23 +3012,23 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="105">
+      <c r="G48" s="100">
         <v>0.1</v>
       </c>
       <c r="H48" s="17"/>
-      <c r="I48" s="85" t="s">
+      <c r="I48" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="113" t="s">
+      <c r="J48" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="K48" s="104" t="s">
+      <c r="K48" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="L48" s="104" t="s">
+      <c r="L48" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="114" t="s">
+      <c r="M48" s="109" t="s">
         <v>34</v>
       </c>
       <c r="N48" s="17"/>
@@ -3032,22 +3042,22 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="137" t="s">
+      <c r="I49" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="126" t="b">
+      <c r="J49" s="121" t="b">
         <f>J33&lt;0.1</f>
         <v>0</v>
       </c>
-      <c r="K49" s="127" t="b">
+      <c r="K49" s="122" t="b">
         <f t="shared" ref="K49:M49" si="8">K33&lt;0.1</f>
         <v>0</v>
       </c>
-      <c r="L49" s="127" t="b">
+      <c r="L49" s="122" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M49" s="128" t="b">
+      <c r="M49" s="123" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3062,22 +3072,22 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="78" t="s">
+      <c r="I50" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="J50" s="129" t="b">
+      <c r="J50" s="124" t="b">
         <f t="shared" ref="J50:M53" si="9">J34&lt;0.1</f>
         <v>0</v>
       </c>
-      <c r="K50" s="130" t="b">
+      <c r="K50" s="125" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L50" s="130" t="b">
+      <c r="L50" s="125" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M50" s="131" t="b">
+      <c r="M50" s="126" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3092,22 +3102,22 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="79" t="s">
+      <c r="I51" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J51" s="129" t="b">
+      <c r="J51" s="124" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K51" s="130" t="b">
+      <c r="K51" s="125" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L51" s="130" t="b">
+      <c r="L51" s="125" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M51" s="131" t="b">
+      <c r="M51" s="126" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3122,23 +3132,23 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
-      <c r="I52" s="79" t="s">
+      <c r="I52" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="129" t="b">
+      <c r="J52" s="124" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="130" t="b">
+      <c r="K52" s="125" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L52" s="130" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="136" t="b">
+      <c r="L52" s="125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="131" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="17"/>
     </row>
@@ -3151,22 +3161,22 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="138" t="s">
+      <c r="I53" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J53" s="132" t="b">
+      <c r="J53" s="127" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K53" s="133" t="b">
+      <c r="K53" s="128" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L53" s="135" t="b">
+      <c r="L53" s="130" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="129" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3310,7 +3320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -3350,142 +3360,142 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="64" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="60">
         <v>44.08</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="60">
         <v>186</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="60">
         <v>42.58</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="60">
         <v>66</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="60">
         <v>40.22</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="60">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="60">
         <v>19.91</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="60">
         <v>84</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="60">
         <v>20</v>
       </c>
-      <c r="H6" s="65">
-        <f t="shared" ref="H6:H8" si="0">$G$2*G6/100</f>
+      <c r="H6" s="60">
+        <f t="shared" ref="H6" si="0">$G$2*G6/100</f>
         <v>31</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="60">
         <v>18.48</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="60">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="60">
         <v>8.06</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="60">
         <v>34</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="60">
         <v>6.45</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="60">
         <v>10</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="60">
         <v>4.3499999999999996</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="60">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="61">
         <v>27.96</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="61">
         <v>118</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="61">
         <v>30.97</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="61">
         <v>48</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="61">
         <v>36.96</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="60">
         <v>34</v>
       </c>
     </row>
@@ -3516,142 +3526,142 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="52">
         <v>37.5</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="60">
         <f>$C$10*C13/100</f>
         <v>27</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="52">
         <v>33.33</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="60">
         <v>23</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="52">
         <v>50.82</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="60">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="52">
         <v>18.059999999999999</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="60">
         <v>13</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="52">
         <v>18.84</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="60">
         <v>13</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="52">
         <v>19.670000000000002</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="60">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="52">
         <v>1.39</v>
       </c>
-      <c r="D15" s="65">
-        <v>1</v>
-      </c>
-      <c r="F15" s="56" t="s">
+      <c r="D15" s="60">
+        <v>1</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="52">
         <v>13.04</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="60">
         <v>9</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="52">
         <v>18.03</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="60">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="54">
         <v>43.06</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="61">
         <v>31</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="54">
         <v>34.78</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="61">
         <v>24</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="54">
         <v>11.48</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="61">
         <v>7</v>
       </c>
     </row>
@@ -3665,56 +3675,56 @@
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="64" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="60">
         <v>34</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="60">
         <f>$C$18*C21/100</f>
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="60">
         <v>15.71</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="60">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="60">
         <v>10.57</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="60">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="61">
         <v>39.71</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="61">
         <v>139</v>
       </c>
     </row>
@@ -3749,158 +3759,158 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="64" t="s">
+      <c r="F29" s="56"/>
+      <c r="G29" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="61"/>
-      <c r="K29" s="64" t="s">
+      <c r="J29" s="56"/>
+      <c r="K29" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="62">
         <f>D30*100/$C$27</f>
         <v>41.679389312977101</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="60">
         <f>D5+L5+D13+H13</f>
         <v>273</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="62">
         <f>H30*100/$C$27</f>
         <v>22.900763358778626</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="60">
         <f>L13+D21</f>
         <v>150</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="60">
         <v>42.58</v>
       </c>
-      <c r="L30" s="65">
+      <c r="L30" s="60">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="62">
         <f t="shared" ref="C31:C33" si="1">D31*100/$C$27</f>
         <v>19.389312977099237</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="60">
         <f t="shared" ref="D31:D33" si="2">D6+L6+D14+H14</f>
         <v>127</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="62">
         <f t="shared" ref="G31:G33" si="3">H31*100/$C$27</f>
         <v>10.229007633587786</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="60">
         <f t="shared" ref="H31:H33" si="4">L14+D22</f>
         <v>67</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="65">
+      <c r="K31" s="60">
         <v>20</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="60">
         <f t="shared" ref="L31" si="5">$G$2*K31/100</f>
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="62">
         <f t="shared" si="1"/>
         <v>7.3282442748091601</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="60">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="62">
         <f t="shared" si="3"/>
         <v>7.3282442748091601</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="60">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="60">
         <v>6.45</v>
       </c>
-      <c r="L32" s="65">
+      <c r="L32" s="60">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="63">
         <f t="shared" si="1"/>
         <v>31.603053435114504</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="60">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="63">
         <f t="shared" si="3"/>
         <v>22.290076335877863</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="61">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="66">
+      <c r="K33" s="61">
         <v>30.97</v>
       </c>
-      <c r="L33" s="66">
+      <c r="L33" s="61">
         <v>48</v>
       </c>
     </row>
@@ -3926,106 +3936,106 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="61"/>
-      <c r="C38" s="64" t="s">
+      <c r="B38" s="56"/>
+      <c r="C38" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="64" t="s">
+      <c r="F38" s="56"/>
+      <c r="G38" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="64" t="s">
+      <c r="H38" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="62">
         <f>D39*100/$C$27</f>
         <v>15.419847328244275</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="60">
         <f>H48+L48</f>
         <v>101</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="60">
         <v>43.05</v>
       </c>
-      <c r="H39" s="65">
+      <c r="H39" s="60">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="62">
         <f t="shared" ref="C40:C42" si="6">D40*100/$C$27</f>
         <v>9.3129770992366421</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="60">
         <f t="shared" ref="D40:D42" si="7">H49+L49</f>
         <v>61</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="60">
         <v>17.11</v>
       </c>
-      <c r="H40" s="65">
+      <c r="H40" s="60">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="62">
         <f t="shared" si="6"/>
         <v>3.8167938931297711</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="60">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="60">
         <v>9.36</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="60">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="63">
         <f t="shared" si="6"/>
         <v>13.893129770992367</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="61">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="61">
         <v>30.48</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="61">
         <v>114</v>
       </c>
     </row>
@@ -4056,141 +4066,141 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="56"/>
+      <c r="C47" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="61"/>
-      <c r="G47" s="64" t="s">
+      <c r="F47" s="56"/>
+      <c r="G47" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="64" t="s">
+      <c r="H47" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="64" t="s">
+      <c r="J47" s="56"/>
+      <c r="K47" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="L47" s="64" t="s">
+      <c r="L47" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="65">
+      <c r="C48" s="60">
         <v>43.05</v>
       </c>
-      <c r="D48" s="65">
+      <c r="D48" s="60">
         <v>161</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="F48" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="60">
         <v>34.020000000000003</v>
       </c>
-      <c r="H48" s="65">
+      <c r="H48" s="60">
         <v>66</v>
       </c>
-      <c r="J48" s="62" t="s">
+      <c r="J48" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="65">
+      <c r="K48" s="60">
         <v>41.67</v>
       </c>
-      <c r="L48" s="65">
+      <c r="L48" s="60">
         <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="65">
+      <c r="C49" s="60">
         <v>17.11</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="60">
         <v>64</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="60">
         <v>22.68</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H49" s="60">
         <v>44</v>
       </c>
-      <c r="J49" s="62" t="s">
+      <c r="J49" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="65">
+      <c r="K49" s="60">
         <v>20.239999999999998</v>
       </c>
-      <c r="L49" s="65">
+      <c r="L49" s="60">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="65">
+      <c r="C50" s="60">
         <v>9.36</v>
       </c>
-      <c r="D50" s="65">
+      <c r="D50" s="60">
         <v>35</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F50" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G50" s="60">
         <v>10.31</v>
       </c>
-      <c r="H50" s="65">
+      <c r="H50" s="60">
         <v>20</v>
       </c>
-      <c r="J50" s="62" t="s">
+      <c r="J50" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K50" s="65">
+      <c r="K50" s="60">
         <v>5.95</v>
       </c>
-      <c r="L50" s="65">
+      <c r="L50" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="61">
         <v>30.48</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="61">
         <v>114</v>
       </c>
-      <c r="F51" s="63" t="s">
+      <c r="F51" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="61">
         <v>32.99</v>
       </c>
-      <c r="H51" s="66">
+      <c r="H51" s="61">
         <v>64</v>
       </c>
-      <c r="J51" s="63" t="s">
+      <c r="J51" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K51" s="66">
+      <c r="K51" s="61">
         <v>32.14</v>
       </c>
-      <c r="L51" s="66">
+      <c r="L51" s="61">
         <v>27</v>
       </c>
     </row>
@@ -4251,38 +4261,38 @@
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="135"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="135"/>
       <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="45"/>
+      <c r="O4" s="135"/>
       <c r="P4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="45"/>
+      <c r="S4" s="135"/>
       <c r="T4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4324,10 +4334,10 @@
       <c r="P5" s="13">
         <v>325</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="45">
         <f>(O5*P5+K5*L5+G5+H5+C5*D5)/T5</f>
         <v>0.52997652582159627</v>
       </c>
@@ -4376,7 +4386,7 @@
       <c r="R6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="45">
         <f t="shared" ref="S6:S14" si="0">(O6*P6+K6*L6+G6+H6+C6*D6)/T6</f>
         <v>0.45801354401805872</v>
       </c>
@@ -4425,7 +4435,7 @@
       <c r="R7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="45">
         <f t="shared" si="0"/>
         <v>0.1191044776119403</v>
       </c>
@@ -4435,38 +4445,38 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="135"/>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="45"/>
+      <c r="K8" s="135"/>
       <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="45"/>
+      <c r="O8" s="135"/>
       <c r="P8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="45"/>
+      <c r="S8" s="135"/>
       <c r="T8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4508,10 +4518,10 @@
       <c r="P9" s="7">
         <v>222</v>
       </c>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="45">
         <f t="shared" si="0"/>
         <v>0.55955583756345173</v>
       </c>
@@ -4560,7 +4570,7 @@
       <c r="R10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="45">
         <f t="shared" si="0"/>
         <v>0.14468571428571428</v>
       </c>
@@ -4609,7 +4619,7 @@
       <c r="R11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="45">
         <f t="shared" si="0"/>
         <v>0.25674612634088201</v>
       </c>
@@ -4658,7 +4668,7 @@
       <c r="R12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="45">
         <f>(O12*P12+K12*L12+G12+H12+C12*D12)/T12</f>
         <v>0.41765165441176472</v>
       </c>
@@ -4707,7 +4717,7 @@
       <c r="R13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="45">
         <f t="shared" si="0"/>
         <v>0.5740577889447237</v>
       </c>
@@ -4756,7 +4766,7 @@
       <c r="R14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="45">
         <f t="shared" si="0"/>
         <v>0.4341586073500967</v>
       </c>
@@ -4766,13 +4776,13 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -4794,52 +4804,52 @@
         <f>G17+C17</f>
         <v>411</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="50"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="135"/>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="45"/>
+      <c r="K19" s="135"/>
       <c r="L19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="50"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="46"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -4860,10 +4870,10 @@
       <c r="H20" s="13">
         <v>1113</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="45">
         <f>(G20*H20+C20*D20)/L20</f>
         <v>0.51007890961262548</v>
       </c>
@@ -4871,13 +4881,13 @@
         <f>H20+D20</f>
         <v>1394</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
@@ -4901,7 +4911,7 @@
       <c r="J21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="45">
         <f t="shared" ref="K21:K29" si="2">(G21*H21+C21*D21)/L21</f>
         <v>0.36215189873417714</v>
       </c>
@@ -4909,13 +4919,13 @@
         <f t="shared" ref="L21:L29" si="3">H21+D21</f>
         <v>632</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="52"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
@@ -4939,7 +4949,7 @@
       <c r="J22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="45">
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
@@ -4947,43 +4957,43 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="52"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="135"/>
       <c r="H23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="45"/>
+      <c r="K23" s="135"/>
       <c r="L23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="50"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="46"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -5004,10 +5014,10 @@
       <c r="H24" s="7">
         <v>636</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="45">
         <f t="shared" si="2"/>
         <v>0.46624078624078624</v>
       </c>
@@ -5015,13 +5025,13 @@
         <f t="shared" si="3"/>
         <v>814</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="52"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
@@ -5045,7 +5055,7 @@
       <c r="J25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="45">
         <f t="shared" si="2"/>
         <v>0.12710526315789475</v>
       </c>
@@ -5053,13 +5063,13 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="52"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="48"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
@@ -5083,7 +5093,7 @@
       <c r="J26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="45">
         <f t="shared" si="2"/>
         <v>0.12866666666666668</v>
       </c>
@@ -5091,13 +5101,13 @@
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="52"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
@@ -5121,7 +5131,7 @@
       <c r="J27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="45">
         <f t="shared" si="2"/>
         <v>0.32684695051783663</v>
       </c>
@@ -5129,13 +5139,13 @@
         <f t="shared" si="3"/>
         <v>869</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="52"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
@@ -5159,7 +5169,7 @@
       <c r="J28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="45">
         <f t="shared" si="2"/>
         <v>0.4566206896551725</v>
       </c>
@@ -5167,13 +5177,13 @@
         <f>H28+D28</f>
         <v>290</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="52"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="33" t="s">
@@ -5197,7 +5207,7 @@
       <c r="J29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="45">
         <f t="shared" si="2"/>
         <v>0.2152892561983471</v>
       </c>
@@ -5205,31 +5215,31 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="52"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -5251,34 +5261,34 @@
         <f>G32+C32</f>
         <v>278</v>
       </c>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="45"/>
+      <c r="C34" s="135"/>
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="135"/>
       <c r="H34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="135"/>
       <c r="L34" s="3" t="s">
         <v>11</v>
       </c>
@@ -5305,8 +5315,8 @@
       <c r="J35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="49">
-        <f t="shared" ref="K35:K39" si="4">(G35*H35+C35*D35)/L35</f>
+      <c r="K35" s="45">
+        <f t="shared" ref="K35:K38" si="4">(G35*H35+C35*D35)/L35</f>
         <v>0.57114441416893735</v>
       </c>
       <c r="L35" s="21">
@@ -5336,7 +5346,7 @@
       <c r="J36" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="45">
         <f t="shared" si="4"/>
         <v>0.40194630872483217</v>
       </c>
@@ -5346,24 +5356,24 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="45"/>
+      <c r="G37" s="135"/>
       <c r="H37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="135"/>
       <c r="L37" s="3" t="s">
         <v>11</v>
       </c>
@@ -5390,7 +5400,7 @@
       <c r="J38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="45">
         <f t="shared" si="4"/>
         <v>0.59888888888888892</v>
       </c>
@@ -5421,7 +5431,7 @@
       <c r="J39" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="49">
+      <c r="K39" s="45">
         <f>(G39*H39+C39*D39)/L39</f>
         <v>0.2946448087431694</v>
       </c>
@@ -5432,13 +5442,9 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="B34:C34"/>
@@ -5455,9 +5461,13 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5483,24 +5493,24 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="45"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
@@ -5564,24 +5574,24 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="135"/>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="45"/>
+      <c r="H5" s="135"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="135"/>
       <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
@@ -5689,18 +5699,18 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="19"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="135"/>
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
@@ -5788,18 +5798,18 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="135"/>
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
@@ -5911,18 +5921,18 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="135"/>
       <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
@@ -6010,18 +6020,18 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="45"/>
+      <c r="G13" s="135"/>
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
@@ -6133,18 +6143,18 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="3" t="s">
         <v>11</v>
       </c>
@@ -6232,18 +6242,18 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="135"/>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
@@ -6340,18 +6350,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6362,7 +6372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:E36"/>
     </sheetView>
   </sheetViews>
@@ -6379,24 +6389,24 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="45"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
@@ -6489,24 +6499,24 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="135"/>
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="3" t="s">
         <v>11</v>
       </c>
@@ -6690,24 +6700,24 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="135"/>
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
@@ -6800,24 +6810,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="135"/>
       <c r="I18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="45"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="3" t="s">
         <v>11</v>
       </c>
@@ -7001,10 +7011,10 @@
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -7043,10 +7053,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
@@ -7119,6 +7129,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="C2:D2"/>
@@ -7127,12 +7143,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7182,18 +7192,18 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="135"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7316,18 +7326,18 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="135"/>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
@@ -7562,18 +7572,18 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="135"/>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
@@ -7696,18 +7706,18 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="135"/>
       <c r="H20" s="3" t="s">
         <v>11</v>
       </c>
@@ -7942,18 +7952,18 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="45"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="135"/>
       <c r="H28" s="3" t="s">
         <v>11</v>
       </c>
@@ -8076,18 +8086,18 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="135"/>
       <c r="H32" s="3" t="s">
         <v>11</v>
       </c>
@@ -8322,18 +8332,18 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="45"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="135"/>
       <c r="H40" s="3" t="s">
         <v>11</v>
       </c>
@@ -8456,18 +8466,18 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="135"/>
       <c r="D44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="45"/>
+      <c r="G44" s="135"/>
       <c r="H44" s="3" t="s">
         <v>11</v>
       </c>
@@ -8702,18 +8712,18 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="45"/>
+      <c r="C52" s="135"/>
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="17"/>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="45"/>
+      <c r="G52" s="135"/>
       <c r="H52" s="3" t="s">
         <v>11</v>
       </c>
@@ -8836,18 +8846,18 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="45"/>
+      <c r="C56" s="135"/>
       <c r="D56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="45"/>
+      <c r="G56" s="135"/>
       <c r="H56" s="3" t="s">
         <v>11</v>
       </c>
@@ -9083,18 +9093,18 @@
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="45"/>
+      <c r="C64" s="135"/>
       <c r="D64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="45"/>
+      <c r="G64" s="135"/>
       <c r="H64" s="3" t="s">
         <v>11</v>
       </c>
@@ -9217,18 +9227,18 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="45"/>
+      <c r="C68" s="135"/>
       <c r="D68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="45"/>
+      <c r="G68" s="135"/>
       <c r="H68" s="3" t="s">
         <v>11</v>
       </c>
@@ -9481,18 +9491,18 @@
     </row>
     <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="45"/>
+      <c r="C78" s="135"/>
       <c r="D78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="17"/>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="45"/>
+      <c r="G78" s="135"/>
       <c r="H78" s="3" t="s">
         <v>11</v>
       </c>
@@ -9615,18 +9625,18 @@
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="45"/>
+      <c r="C82" s="135"/>
       <c r="D82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="45"/>
+      <c r="G82" s="135"/>
       <c r="H82" s="3" t="s">
         <v>11</v>
       </c>
@@ -9861,18 +9871,18 @@
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="45"/>
+      <c r="C90" s="135"/>
       <c r="D90" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="17"/>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="45"/>
+      <c r="G90" s="135"/>
       <c r="H90" s="3" t="s">
         <v>11</v>
       </c>
@@ -9995,18 +10005,18 @@
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="45"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="17"/>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="45"/>
+      <c r="G94" s="135"/>
       <c r="H94" s="3" t="s">
         <v>11</v>
       </c>
@@ -10241,18 +10251,18 @@
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="45"/>
+      <c r="C102" s="135"/>
       <c r="D102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="17"/>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="45"/>
+      <c r="G102" s="135"/>
       <c r="H102" s="3" t="s">
         <v>11</v>
       </c>
@@ -10375,18 +10385,18 @@
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="45"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="17"/>
-      <c r="F106" s="44" t="s">
+      <c r="F106" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="45"/>
+      <c r="G106" s="135"/>
       <c r="H106" s="3" t="s">
         <v>11</v>
       </c>
@@ -10621,18 +10631,18 @@
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
-      <c r="B114" s="44" t="s">
+      <c r="B114" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="45"/>
+      <c r="C114" s="135"/>
       <c r="D114" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="17"/>
-      <c r="F114" s="44" t="s">
+      <c r="F114" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="45"/>
+      <c r="G114" s="135"/>
       <c r="H114" s="3" t="s">
         <v>11</v>
       </c>
@@ -10755,18 +10765,18 @@
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="45"/>
+      <c r="C118" s="135"/>
       <c r="D118" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="17"/>
-      <c r="F118" s="44" t="s">
+      <c r="F118" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="45"/>
+      <c r="G118" s="135"/>
       <c r="H118" s="3" t="s">
         <v>11</v>
       </c>
@@ -11001,18 +11011,18 @@
     </row>
     <row r="126" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17"/>
-      <c r="B126" s="44" t="s">
+      <c r="B126" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="45"/>
+      <c r="C126" s="135"/>
       <c r="D126" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="17"/>
-      <c r="F126" s="44" t="s">
+      <c r="F126" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="45"/>
+      <c r="G126" s="135"/>
       <c r="H126" s="3" t="s">
         <v>11</v>
       </c>
@@ -11135,18 +11145,18 @@
     </row>
     <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
-      <c r="B130" s="44" t="s">
+      <c r="B130" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="45"/>
+      <c r="C130" s="135"/>
       <c r="D130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="17"/>
-      <c r="F130" s="44" t="s">
+      <c r="F130" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="45"/>
+      <c r="G130" s="135"/>
       <c r="H130" s="3" t="s">
         <v>11</v>
       </c>
@@ -11403,18 +11413,18 @@
     </row>
     <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
-      <c r="B140" s="44" t="s">
+      <c r="B140" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="45"/>
+      <c r="C140" s="135"/>
       <c r="D140" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="17"/>
-      <c r="F140" s="44" t="s">
+      <c r="F140" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G140" s="45"/>
+      <c r="G140" s="135"/>
       <c r="H140" s="3" t="s">
         <v>11</v>
       </c>
@@ -11537,18 +11547,18 @@
     </row>
     <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="45"/>
+      <c r="C144" s="135"/>
       <c r="D144" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="17"/>
-      <c r="F144" s="44" t="s">
+      <c r="F144" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="45"/>
+      <c r="G144" s="135"/>
       <c r="H144" s="3" t="s">
         <v>11</v>
       </c>
@@ -11783,18 +11793,18 @@
     </row>
     <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
-      <c r="B152" s="44" t="s">
+      <c r="B152" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C152" s="45"/>
+      <c r="C152" s="135"/>
       <c r="D152" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="17"/>
-      <c r="F152" s="44" t="s">
+      <c r="F152" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G152" s="45"/>
+      <c r="G152" s="135"/>
       <c r="H152" s="3" t="s">
         <v>11</v>
       </c>
@@ -11917,18 +11927,18 @@
     </row>
     <row r="156" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
-      <c r="B156" s="44" t="s">
+      <c r="B156" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="45"/>
+      <c r="C156" s="135"/>
       <c r="D156" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="17"/>
-      <c r="F156" s="44" t="s">
+      <c r="F156" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G156" s="45"/>
+      <c r="G156" s="135"/>
       <c r="H156" s="3" t="s">
         <v>11</v>
       </c>
@@ -12163,18 +12173,18 @@
     </row>
     <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="45"/>
+      <c r="C164" s="135"/>
       <c r="D164" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="17"/>
-      <c r="F164" s="44" t="s">
+      <c r="F164" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G164" s="45"/>
+      <c r="G164" s="135"/>
       <c r="H164" s="3" t="s">
         <v>11</v>
       </c>
@@ -12297,18 +12307,18 @@
     </row>
     <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
-      <c r="B168" s="44" t="s">
+      <c r="B168" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C168" s="45"/>
+      <c r="C168" s="135"/>
       <c r="D168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="17"/>
-      <c r="F168" s="44" t="s">
+      <c r="F168" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G168" s="45"/>
+      <c r="G168" s="135"/>
       <c r="H168" s="3" t="s">
         <v>11</v>
       </c>
@@ -12543,18 +12553,18 @@
     </row>
     <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
-      <c r="B176" s="44" t="s">
+      <c r="B176" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="45"/>
+      <c r="C176" s="135"/>
       <c r="D176" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="17"/>
-      <c r="F176" s="44" t="s">
+      <c r="F176" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G176" s="45"/>
+      <c r="G176" s="135"/>
       <c r="H176" s="3" t="s">
         <v>11</v>
       </c>
@@ -12677,18 +12687,18 @@
     </row>
     <row r="180" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
-      <c r="B180" s="44" t="s">
+      <c r="B180" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="45"/>
+      <c r="C180" s="135"/>
       <c r="D180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="17"/>
-      <c r="F180" s="44" t="s">
+      <c r="F180" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G180" s="45"/>
+      <c r="G180" s="135"/>
       <c r="H180" s="3" t="s">
         <v>11</v>
       </c>
@@ -12945,18 +12955,18 @@
     </row>
     <row r="190" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
-      <c r="B190" s="44" t="s">
+      <c r="B190" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="45"/>
+      <c r="C190" s="135"/>
       <c r="D190" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="17"/>
-      <c r="F190" s="44" t="s">
+      <c r="F190" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G190" s="45"/>
+      <c r="G190" s="135"/>
       <c r="H190" s="3" t="s">
         <v>11</v>
       </c>
@@ -13079,18 +13089,18 @@
     </row>
     <row r="194" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
-      <c r="B194" s="44" t="s">
+      <c r="B194" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="45"/>
+      <c r="C194" s="135"/>
       <c r="D194" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="17"/>
-      <c r="F194" s="44" t="s">
+      <c r="F194" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G194" s="45"/>
+      <c r="G194" s="135"/>
       <c r="H194" s="3" t="s">
         <v>11</v>
       </c>
@@ -13326,18 +13336,18 @@
     </row>
     <row r="202" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
-      <c r="B202" s="44" t="s">
+      <c r="B202" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C202" s="45"/>
+      <c r="C202" s="135"/>
       <c r="D202" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="17"/>
-      <c r="F202" s="44" t="s">
+      <c r="F202" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G202" s="45"/>
+      <c r="G202" s="135"/>
       <c r="H202" s="3" t="s">
         <v>11</v>
       </c>
@@ -13460,18 +13470,18 @@
     </row>
     <row r="206" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
-      <c r="B206" s="44" t="s">
+      <c r="B206" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C206" s="45"/>
+      <c r="C206" s="135"/>
       <c r="D206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E206" s="17"/>
-      <c r="F206" s="44" t="s">
+      <c r="F206" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G206" s="45"/>
+      <c r="G206" s="135"/>
       <c r="H206" s="3" t="s">
         <v>11</v>
       </c>
@@ -13706,18 +13716,18 @@
     </row>
     <row r="214" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="44" t="s">
+      <c r="B214" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C214" s="45"/>
+      <c r="C214" s="135"/>
       <c r="D214" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E214" s="17"/>
-      <c r="F214" s="44" t="s">
+      <c r="F214" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G214" s="45"/>
+      <c r="G214" s="135"/>
       <c r="H214" s="3" t="s">
         <v>11</v>
       </c>
@@ -13840,18 +13850,18 @@
     </row>
     <row r="218" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
-      <c r="B218" s="44" t="s">
+      <c r="B218" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C218" s="45"/>
+      <c r="C218" s="135"/>
       <c r="D218" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E218" s="17"/>
-      <c r="F218" s="44" t="s">
+      <c r="F218" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G218" s="45"/>
+      <c r="G218" s="135"/>
       <c r="H218" s="3" t="s">
         <v>11</v>
       </c>
@@ -14108,18 +14118,18 @@
     </row>
     <row r="228" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
-      <c r="B228" s="44" t="s">
+      <c r="B228" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C228" s="45"/>
+      <c r="C228" s="135"/>
       <c r="D228" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E228" s="17"/>
-      <c r="F228" s="44" t="s">
+      <c r="F228" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G228" s="45"/>
+      <c r="G228" s="135"/>
       <c r="H228" s="3" t="s">
         <v>11</v>
       </c>
@@ -14242,18 +14252,18 @@
     </row>
     <row r="232" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
-      <c r="B232" s="44" t="s">
+      <c r="B232" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="45"/>
+      <c r="C232" s="135"/>
       <c r="D232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E232" s="17"/>
-      <c r="F232" s="44" t="s">
+      <c r="F232" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G232" s="45"/>
+      <c r="G232" s="135"/>
       <c r="H232" s="3" t="s">
         <v>11</v>
       </c>
@@ -14488,18 +14498,18 @@
     </row>
     <row r="240" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
-      <c r="B240" s="44" t="s">
+      <c r="B240" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C240" s="45"/>
+      <c r="C240" s="135"/>
       <c r="D240" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E240" s="17"/>
-      <c r="F240" s="44" t="s">
+      <c r="F240" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G240" s="45"/>
+      <c r="G240" s="135"/>
       <c r="H240" s="3" t="s">
         <v>11</v>
       </c>
@@ -14622,18 +14632,18 @@
     </row>
     <row r="244" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
-      <c r="B244" s="44" t="s">
+      <c r="B244" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C244" s="45"/>
+      <c r="C244" s="135"/>
       <c r="D244" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E244" s="17"/>
-      <c r="F244" s="44" t="s">
+      <c r="F244" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G244" s="45"/>
+      <c r="G244" s="135"/>
       <c r="H244" s="3" t="s">
         <v>11</v>
       </c>
@@ -14890,18 +14900,18 @@
     </row>
     <row r="254" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
-      <c r="B254" s="44" t="s">
+      <c r="B254" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C254" s="45"/>
+      <c r="C254" s="135"/>
       <c r="D254" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E254" s="17"/>
-      <c r="F254" s="44" t="s">
+      <c r="F254" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G254" s="45"/>
+      <c r="G254" s="135"/>
       <c r="H254" s="3" t="s">
         <v>11</v>
       </c>
@@ -15024,18 +15034,18 @@
     </row>
     <row r="258" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
-      <c r="B258" s="44" t="s">
+      <c r="B258" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C258" s="45"/>
+      <c r="C258" s="135"/>
       <c r="D258" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E258" s="17"/>
-      <c r="F258" s="44" t="s">
+      <c r="F258" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="G258" s="45"/>
+      <c r="G258" s="135"/>
       <c r="H258" s="3" t="s">
         <v>11</v>
       </c>
@@ -15270,68 +15280,18 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="F240:G240"/>
     <mergeCell ref="B214:C214"/>
     <mergeCell ref="F214:G214"/>
     <mergeCell ref="B218:C218"/>
@@ -15342,18 +15302,68 @@
     <mergeCell ref="F202:G202"/>
     <mergeCell ref="B206:C206"/>
     <mergeCell ref="F206:G206"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="F254:G254"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15364,7 +15374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -15413,10 +15423,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="40" t="s">
         <v>11</v>
       </c>
@@ -15536,10 +15546,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="40" t="s">
         <v>11</v>
       </c>
